--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/133.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/133.xlsx
@@ -479,13 +479,13 @@
         <v>-17.35886014817108</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.922147043728484</v>
+        <v>-5.880859380737387</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.739909494639795</v>
+        <v>-3.749795066524697</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.246571579527659</v>
+        <v>-8.149402568047725</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-17.2568953413663</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.606109326396151</v>
+        <v>-6.565867910874574</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.746235869525583</v>
+        <v>-3.746196757470647</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.160275719319744</v>
+        <v>-8.058657711590916</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.11311367774212</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.085055995106607</v>
+        <v>-7.050480938543784</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.840632814111977</v>
+        <v>-3.848729009483588</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.725022104978907</v>
+        <v>-7.629002010112697</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-16.94101067396086</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.626278833287826</v>
+        <v>-7.598313714009072</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.586008447476179</v>
+        <v>-3.594979775076968</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.336561175361313</v>
+        <v>-7.2411473173466</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.72738389603469</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.38422156786565</v>
+        <v>-8.362636602548221</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.581642564344024</v>
+        <v>-3.595038443159371</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.931546068492344</v>
+        <v>-6.829165375692279</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.48132533498179</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.12131757716295</v>
+        <v>-9.106200767930448</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.512277334916235</v>
+        <v>-3.527726596615686</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.479484048543053</v>
+        <v>-6.378310940439116</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.18764954574747</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.763498407145962</v>
+        <v>-9.748547824146936</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.405173861482729</v>
+        <v>-3.422055602194186</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.92674759919025</v>
+        <v>-5.824523354609926</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.84176030611123</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.41124781595039</v>
+        <v>-10.39836528285607</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.284777178378082</v>
+        <v>-3.30081800990843</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.404728779982274</v>
+        <v>-5.302299197113538</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.43537724055194</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.68199123822641</v>
+        <v>-10.67580664453976</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.123293281563881</v>
+        <v>-3.142140403035838</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.199781612121199</v>
+        <v>-5.106807368533078</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-14.95635177291959</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.41549382747652</v>
+        <v>-11.40539313928948</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.18115467783382</v>
+        <v>-3.197581740906653</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.599524016021983</v>
+        <v>-4.506275988049314</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.4110803341642</v>
       </c>
       <c r="E12" t="n">
-        <v>-12.0208408797242</v>
+        <v>-12.01289624356546</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.835086326759245</v>
+        <v>-2.854730356350509</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.04659689540137</v>
+        <v>-3.945272228084557</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-13.78389236970736</v>
       </c>
       <c r="E13" t="n">
-        <v>-12.93497271667935</v>
+        <v>-12.92498936465711</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.677875421946728</v>
+        <v>-2.710284648467507</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.291807570252705</v>
+        <v>-3.185515671959108</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-13.08975551904182</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.43239494233988</v>
+        <v>-13.42752549150043</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.531395887207089</v>
+        <v>-2.557527628910749</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.786333150282369</v>
+        <v>-2.680315036373318</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.31240169909374</v>
       </c>
       <c r="E15" t="n">
-        <v>-14.26879157011109</v>
+        <v>-14.26626884256776</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.325089575437012</v>
+        <v>-2.347970127574174</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.097423192665384</v>
+        <v>-1.989640147277377</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.46770299185048</v>
       </c>
       <c r="E16" t="n">
-        <v>-14.89006211772431</v>
+        <v>-14.87681290911497</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.997501670319376</v>
+        <v>-2.024743216581826</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.891698672712469</v>
+        <v>-1.786228127572513</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-10.55001177047157</v>
       </c>
       <c r="E17" t="n">
-        <v>-15.93650025851191</v>
+        <v>-15.93048189105874</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.618491190975528</v>
+        <v>-1.64471582380966</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.519787031339382</v>
+        <v>-1.408718573336809</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.587351348233687</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.67916484663063</v>
+        <v>-16.68786238984687</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.427472803678294</v>
+        <v>-1.449649338826621</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.347258868012821</v>
+        <v>-1.242233222497754</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.596118358703279</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.50505010963797</v>
+        <v>-17.51652949776149</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9240957676538644</v>
+        <v>-0.9461207435893163</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.019842078135527</v>
+        <v>-0.9211476965131147</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-7.619551516979052</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.26162392229306</v>
+        <v>-18.2722575122286</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6230796148579111</v>
+        <v>-0.6438578940422995</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.202182478243987</v>
+        <v>-1.105424143340873</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.691192261150602</v>
       </c>
       <c r="E21" t="n">
-        <v>-18.70269056579866</v>
+        <v>-18.72552711687402</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2083744963787175</v>
+        <v>-0.2262975955528277</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.491670352847755</v>
+        <v>-1.40729098333167</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.854339784955427</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.29046652736664</v>
+        <v>-19.32166816919129</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2614101734631399</v>
+        <v>0.2467480418692619</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.590125173133688</v>
+        <v>-1.51540159217976</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.139451011322098</v>
       </c>
       <c r="E23" t="n">
-        <v>-19.74160452501809</v>
+        <v>-19.76999009888739</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4478280052986068</v>
+        <v>0.4400495953733451</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.58944071217232</v>
+        <v>-1.521160842268986</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.566689434224615</v>
       </c>
       <c r="E24" t="n">
-        <v>-19.96107693228076</v>
+        <v>-19.98181609941022</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5506438197098282</v>
+        <v>0.5473975191501966</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.090935480552988</v>
+        <v>-2.027657064674507</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.147429082606119</v>
       </c>
       <c r="E25" t="n">
-        <v>-20.52915019617508</v>
+        <v>-20.55104805793199</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8435051090517675</v>
+        <v>0.8431579895642165</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.414162391545335</v>
+        <v>-2.362060245364623</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.870704173819993</v>
       </c>
       <c r="E26" t="n">
-        <v>-20.53781840535012</v>
+        <v>-20.56797868871212</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8896035547999085</v>
+        <v>0.8912707061415265</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.865608396629395</v>
+        <v>-2.824218064494093</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.728236038735817</v>
       </c>
       <c r="E27" t="n">
-        <v>-20.78698664032244</v>
+        <v>-20.81821272718143</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8024130063353473</v>
+        <v>0.8092429489284275</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.193914985756467</v>
+        <v>-3.159437709330983</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.686245251007602</v>
       </c>
       <c r="E28" t="n">
-        <v>-20.89310253436883</v>
+        <v>-20.91969384271798</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8447322497753631</v>
+        <v>0.84749453865517</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.555554823702166</v>
+        <v>-3.52360027482001</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.725173141208888</v>
       </c>
       <c r="E29" t="n">
-        <v>-20.76514255764106</v>
+        <v>-20.79052628129409</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7090525312047394</v>
+        <v>0.714650444067357</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.860095950449165</v>
+        <v>-3.832179721239081</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.807279576014682</v>
       </c>
       <c r="E30" t="n">
-        <v>-20.40985353961549</v>
+        <v>-20.43395145446251</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7303294890895533</v>
+        <v>0.7359274019521709</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.473328970773174</v>
+        <v>-4.453103149364747</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.915030981605906</v>
       </c>
       <c r="E31" t="n">
-        <v>-20.34730358576018</v>
+        <v>-20.37185617824582</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7267702920904392</v>
+        <v>0.7370323175040937</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.62409127552823</v>
+        <v>-4.609746929380702</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.023093680176655</v>
       </c>
       <c r="E32" t="n">
-        <v>-20.213775030211</v>
+        <v>-20.23777027591382</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4941953464244282</v>
+        <v>0.5006635025093567</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.092981257113443</v>
+        <v>-5.087104670859411</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.126667043540786</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.81793658923123</v>
+        <v>-19.84130115304821</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3899128299531324</v>
+        <v>0.4011526567401698</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.177223734437254</v>
+        <v>-5.171371593217557</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.215770917861671</v>
       </c>
       <c r="E34" t="n">
-        <v>-19.50058137548605</v>
+        <v>-19.53216435984632</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3282526753476011</v>
+        <v>0.3421618998839741</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.478058993979131</v>
+        <v>-5.475340706161126</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.295658757768972</v>
       </c>
       <c r="E35" t="n">
-        <v>-18.94236434943543</v>
+        <v>-18.96794363336313</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1281358462710384</v>
+        <v>0.139424563126745</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.304606808354722</v>
+        <v>-5.301512067007965</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.363133371382011</v>
       </c>
       <c r="E36" t="n">
-        <v>-18.56232717864953</v>
+        <v>-18.59426706051109</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08553304043274153</v>
+        <v>0.09185941531852947</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.43359347652454</v>
+        <v>-5.434600611939124</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.424626929228926</v>
       </c>
       <c r="E37" t="n">
-        <v>-18.13743825886655</v>
+        <v>-18.16059259538826</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1316754872426848</v>
+        <v>0.1334110846804396</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.03122821137744</v>
+        <v>-5.027199669719102</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.480452369964978</v>
       </c>
       <c r="E38" t="n">
-        <v>-17.67414619014396</v>
+        <v>-17.70163707575662</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.09590289340533911</v>
+        <v>-0.09960387160359373</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.88428910999231</v>
+        <v>-4.87311772930141</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.536784954568545</v>
       </c>
       <c r="E39" t="n">
-        <v>-17.12978949856105</v>
+        <v>-17.16372898423117</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1148477950146345</v>
+        <v>-0.115683815188877</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.88690472866611</v>
+        <v>-4.879683665523677</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.598665913407112</v>
       </c>
       <c r="E40" t="n">
-        <v>-16.65948170498443</v>
+        <v>-16.68874241108292</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1900944997033225</v>
+        <v>-0.1982346961367359</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.747543587924699</v>
+        <v>-4.729869828100802</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.669192217225316</v>
       </c>
       <c r="E41" t="n">
-        <v>-15.93409975614026</v>
+        <v>-15.95932703157354</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3703130708315413</v>
+        <v>-0.3830098216649194</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.85269145861144</v>
+        <v>-4.832553639326616</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.754054946145493</v>
       </c>
       <c r="E42" t="n">
-        <v>-15.29948710878723</v>
+        <v>-15.31965426211326</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4765365230290024</v>
+        <v>-0.4877470157748384</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.837056414651046</v>
+        <v>-4.800413308183518</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.851145023125151</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.80797080342194</v>
+        <v>-14.82580101146558</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5761695939698621</v>
+        <v>-0.589105906139719</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.449705289592241</v>
+        <v>-4.408618075882687</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.96607563145942</v>
       </c>
       <c r="E44" t="n">
-        <v>-14.22864304571998</v>
+        <v>-14.24892753521081</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6192417444673828</v>
+        <v>-0.6314349275934688</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.617192886839013</v>
+        <v>-4.580324886055608</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.092596711771452</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.70548997691888</v>
+        <v>-13.72568646428611</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.7593362362388306</v>
+        <v>-0.7667039695872715</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.708382642920711</v>
+        <v>-4.675538294788776</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.235717335599783</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.7666099872034</v>
+        <v>-12.77874450224709</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.9289065504109087</v>
+        <v>-0.9356876029353197</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.651904835594109</v>
+        <v>-4.598301764305254</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.387475852151608</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.41412725911944</v>
+        <v>-12.42312792076143</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.053004211713811</v>
+        <v>-1.064649826070802</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.854475946117863</v>
+        <v>-4.798003027798129</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.554184469171442</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.64677807532967</v>
+        <v>-11.65512361005149</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.173171111495713</v>
+        <v>-1.182988237284479</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.855453747491246</v>
+        <v>-4.79074285260076</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.72788798103721</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.24520971830187</v>
+        <v>-11.25525173840652</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.274945567444282</v>
+        <v>-1.285041366624461</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.816742591119014</v>
+        <v>-4.755400221959832</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.916568467238406</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.67801158663674</v>
+        <v>-10.68671890786671</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.520114594799466</v>
+        <v>-1.530122391856041</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.058235085310278</v>
+        <v>-4.994609549944246</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.114248644909199</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.25676008796274</v>
+        <v>-10.26808302786652</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.478088691771465</v>
+        <v>-1.486678676836634</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.236434496602461</v>
+        <v>-5.17341030908106</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.329058714220099</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.719854242845011</v>
+        <v>-9.737459556572773</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.596436880998875</v>
+        <v>-1.604630856507824</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.251482859738825</v>
+        <v>-5.18588216559856</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.558756740743047</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.18343729841397</v>
+        <v>-9.197053182538328</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.55597057116142</v>
+        <v>-1.567195730927857</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.39251604082872</v>
+        <v>-5.331339897903014</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.80604400750192</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.640591309952937</v>
+        <v>-8.659844218994847</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.653095581579552</v>
+        <v>-1.665547882069585</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.326113549562281</v>
+        <v>-5.268770388020236</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.070390541236143</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.917981428002306</v>
+        <v>-7.931259970652847</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.822005879824597</v>
+        <v>-1.832923032158418</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.511338463722221</v>
+        <v>-5.45170724696646</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.346107346760331</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.560609693051424</v>
+        <v>-7.576190957936282</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.915806365573227</v>
+        <v>-1.931509855629758</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.511372686770289</v>
+        <v>-5.456938484314058</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.634361936950585</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.246950568497629</v>
+        <v>-7.254499195100145</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.813088331299344</v>
+        <v>-1.824430827230587</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.39597256868363</v>
+        <v>-5.346740269533796</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.924594477200254</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.711330532185895</v>
+        <v>-6.732221258528222</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.863381544939298</v>
+        <v>-1.8726168789109</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.63379341871784</v>
+        <v>-5.579217435062469</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.219525071288503</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.253983495813468</v>
+        <v>-6.263477947149018</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.043996125623737</v>
+        <v>-2.058291581702596</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.603320238916359</v>
+        <v>-5.557872031081518</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.506079333384804</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.153294399389355</v>
+        <v>-6.167247624987531</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.096416057250799</v>
+        <v>-2.10541671889279</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.469024109289072</v>
+        <v>-5.430880077713402</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.789032219888092</v>
       </c>
       <c r="E61" t="n">
-        <v>-6.034960877182546</v>
+        <v>-6.055152475542905</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.173794368933462</v>
+        <v>-2.180428751251866</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.442036791383702</v>
+        <v>-5.403550529327347</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.055012912515032</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.787445126531243</v>
+        <v>-5.806800704717359</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.198415407515246</v>
+        <v>-2.20303551900448</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.574157312955212</v>
+        <v>-5.532913651025916</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.31061451681696</v>
       </c>
       <c r="E63" t="n">
-        <v>-5.488291685351584</v>
+        <v>-5.513181619311048</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.339966823333034</v>
+        <v>-2.342743779233442</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.409172887224299</v>
+        <v>-5.372104437159351</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.542603695050278</v>
       </c>
       <c r="E64" t="n">
-        <v>-5.340413894648008</v>
+        <v>-5.361348622052137</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.511448739190076</v>
+        <v>-2.519021810826927</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.216917581189736</v>
+        <v>-5.182489194832921</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.756319415931108</v>
       </c>
       <c r="E65" t="n">
-        <v>-5.163813188601306</v>
+        <v>-5.185236816692127</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.334906701225777</v>
+        <v>-2.339976601346768</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.264169832558469</v>
+        <v>-5.226465811600821</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.940251975918454</v>
       </c>
       <c r="E66" t="n">
-        <v>-5.166903040941196</v>
+        <v>-5.183721224563383</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.433728197026729</v>
+        <v>-2.440787922942554</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.307725994735814</v>
+        <v>-5.274866979583279</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.0949228079116</v>
       </c>
       <c r="E67" t="n">
-        <v>-4.965779076450049</v>
+        <v>-4.987901832522839</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.546410027295385</v>
+        <v>-2.557077840278993</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.223859970940755</v>
+        <v>-5.18857600838223</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.21333930925898</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.065162808040697</v>
+        <v>-5.091993677726325</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.603655408700092</v>
+        <v>-2.618307762280236</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.096692013325431</v>
+        <v>-5.066795736334246</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.28945004529606</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.167269716456214</v>
+        <v>-5.190712504383072</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.602462491024565</v>
+        <v>-2.612807629554957</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.882186837039537</v>
+        <v>-4.848790031131641</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.32305925635162</v>
       </c>
       <c r="E70" t="n">
-        <v>-4.970320963829413</v>
+        <v>-4.993744195728802</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.562216186496121</v>
+        <v>-2.579137039262513</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.910259514469363</v>
+        <v>-4.883428644783733</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.30461999843738</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.454396200743263</v>
+        <v>-5.473644220778307</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.659883876676481</v>
+        <v>-2.676100712454037</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.739496282621758</v>
+        <v>-4.70909643792328</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.24202858052228</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.518505747789119</v>
+        <v>-5.541782309482501</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.628648011803761</v>
+        <v>-2.645466195425949</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.506261321028713</v>
+        <v>-4.478257089695024</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.12692263196476</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.742060475785672</v>
+        <v>-5.762115181953757</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.733678546325695</v>
+        <v>-2.747861555246615</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.493975246772155</v>
+        <v>-4.464538536426461</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.969593693962254</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.913112159038425</v>
+        <v>-5.926107139290685</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.619266007626151</v>
+        <v>-2.633185010176258</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.03650109622119</v>
+        <v>-4.009929343899508</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.762282921910872</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.369755178422015</v>
+        <v>-6.386064905330043</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.832812938566129</v>
+        <v>-2.85048180938316</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.87069042832977</v>
+        <v>-3.835479800874249</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.51520670009357</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.564997667652263</v>
+        <v>-6.581014054148277</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.882910591931407</v>
+        <v>-2.898687417090941</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.486385154549053</v>
+        <v>-3.460204522776724</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.222747635849856</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.149160653145596</v>
+        <v>-7.166790411907691</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.889921427778563</v>
+        <v>-2.90719917804624</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.164659168664848</v>
+        <v>-3.149904145940499</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.894739664088677</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.815747405408247</v>
+        <v>-7.830013527445905</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.979566257690315</v>
+        <v>-2.995875984598344</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.875743307864509</v>
+        <v>-2.864513259091206</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.528868445829595</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.548565533696996</v>
+        <v>-8.569671376341468</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.971890516909259</v>
+        <v>-2.993221253869609</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.475646541903658</v>
+        <v>-2.471314881819571</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.131996303277477</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.145112373584224</v>
+        <v>-9.166262217290498</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.052622687302625</v>
+        <v>-3.074936114643225</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.13260937508657</v>
+        <v>-2.132638709127772</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.706622534566081</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.865091969840455</v>
+        <v>-9.889493003113227</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.010547894205955</v>
+        <v>-3.029096786259031</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.777540362370005</v>
+        <v>-1.77238246012541</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.256271721492809</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.7639603273571</v>
+        <v>-10.78660131815779</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.152866884101849</v>
+        <v>-3.174197621062199</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.717469134996221</v>
+        <v>-1.71533263899538</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.789706398038473</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.6762098966685</v>
+        <v>-11.69003600808813</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.164473386403905</v>
+        <v>-3.187495719740208</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.445449681927941</v>
+        <v>-1.446491040390594</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.306774384462032</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.72840239853846</v>
+        <v>-12.74665306117266</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.208640674439615</v>
+        <v>-3.227468239884105</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.187134115107622</v>
+        <v>-1.196208111852617</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.82045985550007</v>
       </c>
       <c r="E85" t="n">
-        <v>-14.10015016724373</v>
+        <v>-14.12012664930194</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.174818524934298</v>
+        <v>-3.19769907707146</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.079585742049227</v>
+        <v>-1.084518749977945</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.328021037536053</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.30604815600263</v>
+        <v>-15.3269926614205</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.106993332669587</v>
+        <v>-3.127566273565565</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.108479772632695</v>
+        <v>-1.108592219790634</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.843605650621304</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.7428588280928</v>
+        <v>-16.76498647317246</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.034127574325086</v>
+        <v>-3.05324848018159</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.9432900086133725</v>
+        <v>-0.9468149825644182</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.365914752457579</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.13225591158762</v>
+        <v>-18.15226172768704</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.042438885998842</v>
+        <v>-3.062293142885383</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.256254894192066</v>
+        <v>-1.263216839970553</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.907929361561146</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.64677245882054</v>
+        <v>-19.66935478153882</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.017632065156115</v>
+        <v>-3.032191527605788</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.110083366885043</v>
+        <v>-1.125718410845437</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.46979469149181</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.4288056837973</v>
+        <v>-21.45000930657911</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.773333281023242</v>
+        <v>-2.784338435480668</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.318912406198448</v>
+        <v>-1.331227814496207</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.062128091412951</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.00513883385549</v>
+        <v>-23.0336710779308</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.742493425706742</v>
+        <v>-2.755126619450851</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.462360756680599</v>
+        <v>-1.470735625443625</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.68688793160998</v>
       </c>
       <c r="E92" t="n">
-        <v>-24.87803425145387</v>
+        <v>-24.89904720296786</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.563316213041177</v>
+        <v>-2.571255960193047</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.752220195806253</v>
+        <v>-1.759074583433668</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.352591758522554</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.7678040762534</v>
+        <v>-26.78980216265109</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.471676668327723</v>
+        <v>-2.474722519605811</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.183596827701626</v>
+        <v>-2.193893076163349</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.062678854566416</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.78198934780219</v>
+        <v>-28.80900844425219</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.648003589989878</v>
+        <v>-2.652252136957226</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.359693966041036</v>
+        <v>-2.364382523626408</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.821378643692767</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.99062508946879</v>
+        <v>-31.02267008497798</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.558348982064391</v>
+        <v>-2.553885318794898</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.698707480206652</v>
+        <v>-2.702124896006626</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.635191899795947</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.10028777612155</v>
+        <v>-33.13168986722775</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.65823628136233</v>
+        <v>-2.660622116713385</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.010958570782776</v>
+        <v>-3.014410209630818</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.499795710759484</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.18140599618184</v>
+        <v>-35.20739351218293</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.784519328734743</v>
+        <v>-2.780735237419751</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.33495305585323</v>
+        <v>-3.340849198134729</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.425861775142236</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.30194427861007</v>
+        <v>-37.33322903355145</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.919583032440136</v>
+        <v>-2.9182141105174</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.595874463333613</v>
+        <v>-3.605496028847702</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.397024328589113</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.65691777381716</v>
+        <v>-39.68840297804009</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.869544047157262</v>
+        <v>-2.86216164678822</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.840975044592661</v>
+        <v>-3.840363918734297</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.435247597317483</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.87389416119871</v>
+        <v>-41.91073527244435</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.920375051552576</v>
+        <v>-2.903532422896054</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.261102071687263</v>
+        <v>-4.250942715417814</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.505944157041522</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.90007705559891</v>
+        <v>-43.93528034954413</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.946277009933492</v>
+        <v>-2.924960939993742</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.567569467139826</v>
+        <v>-4.555953186824037</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.665793223377036</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.37172669968493</v>
+        <v>-46.40817913488464</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.129922774875418</v>
+        <v>-3.103165240292792</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.74835027405774</v>
+        <v>-4.737159337339373</v>
       </c>
     </row>
   </sheetData>
